--- a/data/trans_camb/P26_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P26_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>13,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>35,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>12,85</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,75</t>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 2,38</t>
+          <t>-12,33; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 10,88</t>
+          <t>-7,78; 5,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 21,69</t>
+          <t>0,68; 28,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 18,25</t>
+          <t>4,78; 73,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 16,39</t>
+          <t>-2,97; 16,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 51,87</t>
+          <t>-5,08; 12,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 10,27</t>
+          <t>-4,37; 16,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 12,19</t>
+          <t>0,59; 28,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 39,54</t>
+          <t>-3,56; 8,41</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 7,18</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 18,58</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,87; 50,53</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-57,23%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>57,4%</t>
+          <t>-8,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>196,16%</t>
+          <t>606,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>103,23%</t>
+          <t>1553,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>86,25%</t>
+          <t>126,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>223,66%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>73,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>82,07%</t>
+          <t>251,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>230,1%</t>
+          <t>60,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>224,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>607,41%</t>
         </is>
       </c>
     </row>
@@ -796,42 +865,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-95,34; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,3; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 594,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 479,22</t>
+          <t>-58,54; 997,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 1749,95</t>
+          <t>-72,02; 891,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 291,06</t>
+          <t>-82,63; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 407,01</t>
+          <t>-17,1; 1505,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,57; 1876,61</t>
+          <t>-65,09; 730,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-69,8; 617,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,07; 1584,9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>77,65; 4287,37</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,48</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 8,92</t>
+          <t>1,57; 7,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 13,55</t>
+          <t>1,19; 7,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 24,5</t>
+          <t>3,44; 12,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 8,64</t>
+          <t>1,39; 7,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 16,64</t>
+          <t>1,0; 11,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 11,51</t>
+          <t>4,25; 15,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 7,69</t>
+          <t>-0,49; 9,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 12,42</t>
+          <t>-1,33; 8,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 13,98</t>
+          <t>1,85; 8,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 9,37</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 9,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 6,18</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>114,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>186,16%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>433,21%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,73%</t>
+          <t>144,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
+          <t>238,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>105,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>105,24%</t>
+          <t>241,18%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>315,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>280,02%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>166,04%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,89; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,26; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,05; 144,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 313,94</t>
+          <t>8,8; 549,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 188,84</t>
+          <t>64,18; 833,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 155,9</t>
+          <t>-16,34; 455,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 288,35</t>
+          <t>-31,66; 373,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 286,9</t>
+          <t>46,02; 909,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>75,95; 1051,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>71,17; 1048,34</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15,57; 770,18</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,49</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 2,82</t>
+          <t>-5,43; 2,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 13,07</t>
+          <t>-2,91; 7,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 12,52</t>
+          <t>-1,96; 8,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 11,75</t>
+          <t>-4,35; 5,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 28,59</t>
+          <t>-0,11; 6,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 23,41</t>
+          <t>3,31; 12,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 5,22</t>
+          <t>2,3; 10,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 18,66</t>
+          <t>1,21; 9,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 15,78</t>
+          <t>-1,75; 3,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 8,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 7,87</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 6,3</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-50,47%</t>
+          <t>-32,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>64,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>79,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>326,95%</t>
+          <t>224,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>239,11%</t>
+          <t>605,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-13,17%</t>
+          <t>502,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>124,04%</t>
+          <t>405,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>44,26%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>224,4%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>204,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>120,52%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,8; 78,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,08; 234,18</t>
+          <t>-54,17; 524,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 240,55</t>
+          <t>-43,86; 643,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,27; 832,56</t>
+          <t>-83,72; 473,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,09; —</t>
+          <t>-47,06; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,58; 1302,45</t>
+          <t>39,09; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,86; 108,74</t>
+          <t>-2,26; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,57; 388,91</t>
+          <t>-29,92; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 306,06</t>
+          <t>-55,37; 303,36</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30,53; 697,64</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23,2; 604,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-19,79; 519,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 9,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 15,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 9,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 15,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 23,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,33; 18,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>137,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>123,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>121,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>104,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>129,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,89; 98,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 242,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,0; 358,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 158,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,11; 250,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,03; 364,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 91,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,23; 211,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>50,41; 285,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6,49</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7,63</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4,46</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7,55</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 3,55</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 5,67</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 10,16</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 22,8</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 7,75</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 11,17</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 8,67</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 9,77</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 4,82</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 7,44</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 8,22</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 13,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>66,76%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>147,25%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>389,31%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>458,06%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>153,81%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>260,46%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>166,8%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>203,49%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>125,24%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>219,63%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>241,39%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>288,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-39,5; 554,29</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 696,73</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>114,9; 1343,07</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>60,77; 2372,12</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>27,54; 447,69</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>87,32; 598,45</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>37,88; 465,67</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>48,69; 521,43</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>27,89; 319,06</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>91,9; 433,21</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>107,07; 489,1</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>105,47; 761,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
